--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo.Latendresse\Documents\code\uqam-django\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathe\Documents\code\uqam-django\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DB2AC7BB-C84C-40E8-A89B-CF757F0FC273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DDCB5A-5B2C-4095-9FE1-16A12F7473EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>qnumber</t>
   </si>
@@ -56,25 +56,32 @@
     <t>qtext</t>
   </si>
   <si>
-    <t>De quel pays venez-vous?</t>
+    <t xml:space="preserve">
+Êtes-vous actuellement au Canada ou à l’étranger? </t>
   </si>
   <si>
-    <t>Etes-vous au Canada en ce moment</t>
+    <t xml:space="preserve">Quelle est votre situation?  </t>
   </si>
   <si>
-    <t>Question  #3</t>
+    <t xml:space="preserve">Quelle est votre statut? </t>
   </si>
   <si>
-    <t>Question #4</t>
+    <t xml:space="preserve">Êtes-vous inscrit dans un programme d’études à l’UQAM?  </t>
   </si>
   <si>
-    <t>Question #5</t>
+    <t xml:space="preserve">Quelle est votre situation? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous étudiez à quel cycle d’études? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avez-vous postuler pour un programme d'études à l'UQAM? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,52 +559,53 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,7 +621,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -908,12 +916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -927,7 +937,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -936,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,10 +970,35 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathe\Documents\code\uqam-django\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DDCB5A-5B2C-4095-9FE1-16A12F7473EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027B3BEB-A028-4818-B720-47425BF2AF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,16 +66,16 @@
     <t xml:space="preserve">Quelle est votre statut? </t>
   </si>
   <si>
-    <t xml:space="preserve">Êtes-vous inscrit dans un programme d’études à l’UQAM?  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Quelle est votre situation? </t>
   </si>
   <si>
-    <t xml:space="preserve">Vous étudiez à quel cycle d’études? </t>
+    <t xml:space="preserve">Avez-vous postulé pour un programme d'études à l'UQAM? </t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous postuler pour un programme d'études à l'UQAM? </t>
+    <t xml:space="preserve">Êtes-vous inscrit(e) dans un programme d’études à l’UQAM?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quel cycle d'études étudiez-vous? </t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -986,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
